--- a/src/test/Resources/TestData.xlsx
+++ b/src/test/Resources/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digi_WS\IdeaProjects\Redo of Toolsqa\src\test\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43730C-E0E3-4B2B-8742-65C7EEFA7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C790BA04-7245-4A70-A0F4-50C160571F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E87EF701-E3A1-4885-83AA-C4B4E0232A16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
